--- a/data/Angel RodriguezT4-2024.xlsx
+++ b/data/Angel RodriguezT4-2024.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:I29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
@@ -503,6 +503,8 @@
     <col width="25" customWidth="1" min="5" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -510,6 +512,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -517,6 +520,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -594,8 +598,6 @@
       <c r="F11" s="9" t="n">
         <v>210.00302474</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
@@ -937,7 +939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:E37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
@@ -949,6 +951,8 @@
     <col width="25" customWidth="1" min="4" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -956,6 +960,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -963,6 +968,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1112,7 +1118,6 @@
       </c>
     </row>
     <row r="19">
-      <c r="C19" t="inlineStr"/>
       <c r="D19" s="2" t="n">
         <v>28867</v>
       </c>
@@ -1356,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:E30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E30"/>
@@ -1368,6 +1373,8 @@
     <col width="25" customWidth="1" min="4" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1375,6 +1382,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1382,6 +1390,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
